--- a/reports/corpus_dwi-unigram_bigram-fold-5.xlsx
+++ b/reports/corpus_dwi-unigram_bigram-fold-5.xlsx
@@ -590,88 +590,88 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9966666666666667</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7848101265822784</v>
+        <v>0.9240506329113924</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6304347826086957</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9657534246575342</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9419354838709677</v>
+        <v>0.9741935483870968</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.6619047619047619</v>
       </c>
       <c r="M2" t="n">
         <v>0.926829268292683</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9420289855072463</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9847457627118644</v>
+        <v>0.9864406779661017</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9191919191919192</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7244897959183674</v>
+        <v>0.8673469387755102</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.8</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.9611650485436893</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.6</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.49</v>
+        <v>0.695</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7561317449194114</v>
+        <v>0.8514365802382621</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.627866828731083</v>
+        <v>0.7895733599445097</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8740809967215505</v>
+        <v>0.8994345328552114</v>
       </c>
     </row>
     <row r="3">
@@ -687,16 +687,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9864864864864865</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -705,43 +705,43 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9848484848484849</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4662921348314606</v>
+        <v>0.6024844720496895</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9431818181818182</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9726027397260274</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -750,22 +750,22 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9328859060402684</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7561317449194114</v>
+        <v>0.8514365802382621</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8444137435339754</v>
+        <v>0.9174024014386541</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7561317449194114</v>
+        <v>0.8514365802382621</v>
       </c>
     </row>
     <row r="4">
@@ -778,88 +778,88 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983305509181971</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8794326241134751</v>
+        <v>0.9542483660130719</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6956521739130436</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.8641975308641976</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9825783972125435</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9700996677740864</v>
+        <v>0.9837133550488599</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6343042071197411</v>
+        <v>0.7920227920227919</v>
       </c>
       <c r="M4" t="n">
         <v>0.9620253164556963</v>
       </c>
       <c r="N4" t="n">
-        <v>0.962962962962963</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6328976034858388</v>
+        <v>0.7480719794344474</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4067796610169491</v>
+        <v>0.53125</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.672566371681416</v>
+        <v>0.7155172413793103</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9268292682926829</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9578947368421054</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8304093567251463</v>
+        <v>0.9189189189189189</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9852216748768473</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.9801980198019802</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.7499999999999999</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0.4836601307189542</v>
+        <v>0.7526881720430109</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6426229508196721</v>
+        <v>0.7965616045845272</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.846153846153846</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7561317449194114</v>
+        <v>0.8514365802382621</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6939115342633448</v>
+        <v>0.8276324249997852</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7596722673992838</v>
+        <v>0.8519463423656038</v>
       </c>
     </row>
     <row r="5">
@@ -872,82 +872,82 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I5" t="n">
+        <v>144</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>152</v>
+      </c>
+      <c r="L5" t="n">
         <v>141</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>146</v>
-      </c>
-      <c r="L5" t="n">
-        <v>99</v>
       </c>
       <c r="M5" t="n">
         <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" t="n">
-        <v>1246</v>
+        <v>966</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="S5" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T5" t="n">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="U5" t="n">
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="W5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="Z5" t="n">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="AA5" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7561317449194114</v>
+        <v>0.8514365802382621</v>
       </c>
       <c r="AC5" t="n">
         <v>2854</v>

--- a/reports/corpus_dwi-unigram_bigram-fold-5.xlsx
+++ b/reports/corpus_dwi-unigram_bigram-fold-5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,50 +531,45 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>RBS</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UH</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>UH</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>VBT</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -641,37 +636,34 @@
         <v>0.9696969696969697</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8673469387755102</v>
+        <v>0.8724489795918368</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="W2" t="n">
-        <v>0.970873786407767</v>
+        <v>0.8</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6306306306306306</v>
+        <v>0.695</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.695</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8517869656622284</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8514365802382621</v>
+        <v>0.821360375974943</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7895733599445097</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.8994345328552114</v>
+        <v>0.9000512827086216</v>
       </c>
     </row>
     <row r="3">
@@ -735,37 +727,34 @@
         <v>0.9896907216494846</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9770114942528736</v>
+        <v>0.9771428571428571</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9833333333333333</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9328859060402684</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9328859060402684</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0.8517869656622284</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8514365802382621</v>
+        <v>0.9541037520117996</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9174024014386541</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.8514365802382621</v>
+        <v>0.8517869656622284</v>
       </c>
     </row>
     <row r="4">
@@ -829,37 +818,34 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9189189189189189</v>
+        <v>0.9218328840970351</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9852216748768473</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="X4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.7526881720430109</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7526881720430109</v>
+        <v>0.7965616045845272</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7965616045845272</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.8517869656622284</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8514365802382621</v>
+        <v>0.8608542806069012</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8276324249997852</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.8519463423656038</v>
+        <v>0.8524469950723624</v>
       </c>
     </row>
     <row r="5">
@@ -923,36 +909,33 @@
         <v>97</v>
       </c>
       <c r="T5" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="V5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="W5" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="Y5" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z5" t="n">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>0.8517869656622284</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8514365802382621</v>
+        <v>2854</v>
       </c>
       <c r="AC5" t="n">
-        <v>2854</v>
-      </c>
-      <c r="AD5" t="n">
         <v>2854</v>
       </c>
     </row>
